--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -5,18 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\GrappleKing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447015\Documents\GitHub\GrappleKing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FEF4CF-C11F-41BD-BC97-17DD35BE4367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E32BD-9E3E-4603-A5DD-B2226B233132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="0" windowWidth="21180" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="コスト表_元データ" sheetId="1" r:id="rId1"/>
-    <sheet name="作業工数見積もり" sheetId="4" r:id="rId2"/>
-    <sheet name="メモ" sheetId="5" r:id="rId3"/>
+    <sheet name="コスト表_進捗詳細" sheetId="1" r:id="rId1"/>
+    <sheet name="コスト表_作業状況" sheetId="6" r:id="rId2"/>
+    <sheet name="作業工数見積もり" sheetId="4" r:id="rId3"/>
+    <sheet name="メモ" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コスト表_進捗詳細!$A$2:$G$35</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,13 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
-  </si>
-  <si>
-    <t>アルファ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>コスト</t>
@@ -70,20 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・クラス設計</t>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未完</t>
-    <rPh sb="0" eb="2">
-      <t>ミカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消化コスト</t>
     <rPh sb="0" eb="2">
       <t>ショウカ</t>
@@ -91,13 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ライブラリ設計</t>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在の日数(土日除く)</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -114,16 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・アルファ素材集め</t>
-    <rPh sb="5" eb="7">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
@@ -131,10 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今日の日付</t>
     <rPh sb="0" eb="2">
       <t>キョウ</t>
@@ -145,17 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　UI素材</t>
-    <rPh sb="5" eb="7">
-      <t>ソザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　SE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>理想</t>
     <rPh sb="0" eb="2">
       <t>リソウ</t>
@@ -163,18 +117,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デッドライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　マップ素材</t>
-    <rPh sb="6" eb="8">
-      <t>ソザイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -185,151 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ー　エフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・当たり判定</t>
-    <rPh sb="1" eb="2">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　待機</t>
-    <rPh sb="3" eb="5">
-      <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アニメーション処理</t>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　再生</t>
-    <rPh sb="3" eb="5">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　配置データの読み込み</t>
-  </si>
-  <si>
-    <t>　ー　マップ実装</t>
-  </si>
-  <si>
-    <t>・音処理</t>
-    <rPh sb="1" eb="4">
-      <t>オトショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　BGM再生</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　音量調整の処理</t>
-  </si>
-  <si>
-    <t>　ー　音実装</t>
-  </si>
-  <si>
-    <t>・UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　タイトル画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・UX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　カーソル移動</t>
-  </si>
-  <si>
-    <t>　ー　決定処理</t>
-  </si>
-  <si>
-    <t>　ー　画面遷移</t>
-  </si>
-  <si>
-    <t>・エフェクト</t>
-  </si>
-  <si>
-    <t>・ビルドテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　床の当たり判定</t>
-    <rPh sb="3" eb="4">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　―　ロープ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　－　壁の当たり判定</t>
-    <rPh sb="3" eb="4">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　ステージ選択画面</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　メイン画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消費コスト / 日数</t>
   </si>
   <si>
@@ -337,13 +135,6 @@
   </si>
   <si>
     <t>一日の消費コスト</t>
-  </si>
-  <si>
-    <t>　ー　ステージクリア演出</t>
-    <rPh sb="10" eb="12">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>優先度</t>
@@ -400,33 +191,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>　ー　糸がつかない天井</t>
-    <rPh sb="3" eb="4">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テンジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　－　鍵のかかったドア</t>
-    <rPh sb="3" eb="4">
-      <t>カギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ー　鍵を開けるためのボタン</t>
-    <rPh sb="3" eb="4">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -775,6 +539,37 @@
   </si>
   <si>
     <t>作業中</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>未完了</t>
+  </si>
+  <si>
+    <t>ステージ1実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ2実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ3実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -894,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -969,11 +764,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -996,11 +817,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1276,19 +1131,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
@@ -1296,838 +1153,760 @@
     <col min="12" max="12" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f>SUM(E3:E41)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>59</v>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="15">
-        <f>SUMIF(G3:G41,"完了",E3:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="15">
-        <f ca="1">NETWORKDAYS(J5,J6)</f>
-        <v>17</v>
-      </c>
-      <c r="K4" s="15">
-        <f ca="1" xml:space="preserve"> J3 / J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="16">
-        <f>DATE(2024,11,1)</f>
-        <v>45597</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="16">
-        <f ca="1">TODAY()</f>
-        <v>45621</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="16">
-        <v>45641</v>
-      </c>
-      <c r="K8" s="15">
-        <f ca="1">NETWORKDAYS(TODAY(),J8)</f>
-        <v>15</v>
-      </c>
-      <c r="L8" s="15">
-        <f ca="1">($J$2 - $J$3) / K8</f>
-        <v>4.5333333333333332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="16">
-        <v>45687</v>
-      </c>
-      <c r="K9" s="15">
-        <f ca="1">NETWORKDAYS(TODAY(),J9)</f>
-        <v>49</v>
-      </c>
-      <c r="L9" s="15">
-        <f ca="1">($J$2 - $J$3) / K9</f>
-        <v>1.3877551020408163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="16">
-        <v>45689</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" ref="K9:K10" ca="1" si="0">NETWORKDAYS(TODAY(),J10)</f>
-        <v>50</v>
-      </c>
-      <c r="L10" s="15">
-        <f ca="1">($J$2 - $J$3) / K10</f>
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="F15" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="9" t="s">
+      <c r="G15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="11"/>
       <c r="G16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5">
         <v>2</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E22" s="5">
         <v>2</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E23" s="5">
         <v>2</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5">
         <v>2</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5">
         <v>2</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E26" s="5">
         <v>2</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E28" s="5">
         <v>2</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E29" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E30" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="9" t="s">
-        <v>36</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E32" s="5">
         <v>3</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="5"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="G32" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="5" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="5" t="s">
-        <v>47</v>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E34" s="5">
         <v>3</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="5" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>59</v>
+    <row r="35" spans="1:9">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="5">
-        <v>3</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="5">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="5">
-        <v>4</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C41" xr:uid="{8C3E05A2-1EDB-4575-ADC5-4FBC43D84577}">
+  <conditionalFormatting sqref="B3:G35">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$G3="完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$G3="作業中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C35" xr:uid="{8C3E05A2-1EDB-4575-ADC5-4FBC43D84577}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D41" xr:uid="{BF5DB8B7-C127-42B1-A95C-857BD093B02E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D35" xr:uid="{BF5DB8B7-C127-42B1-A95C-857BD093B02E}">
       <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G35" xr:uid="{EBE9E33F-E651-4CA6-AD2F-51FBDE535D3C}">
+      <formula1>"未完了,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2136,11 +1915,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069BEE90-BDA3-483E-B604-6F3243372885}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>SUM(コスト表_進捗詳細!E3:E35)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <f>SUMIF(コスト表_進捗詳細!G3:G35,"完了",コスト表_進捗詳細!E3:E35)</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15">
+        <f ca="1">NETWORKDAYS(C5,C6)</f>
+        <v>18</v>
+      </c>
+      <c r="D4" s="15">
+        <f ca="1" xml:space="preserve"> C3 / C4</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16">
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45622</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16">
+        <v>45658</v>
+      </c>
+      <c r="D8" s="15">
+        <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
+        <v>27</v>
+      </c>
+      <c r="E8" s="15">
+        <f ca="1">($C$2 - $C$3) / D8</f>
+        <v>2.3703703703703702</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>45687</v>
+      </c>
+      <c r="D9" s="15">
+        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
+        <v>48</v>
+      </c>
+      <c r="E9" s="15">
+        <f ca="1">($C$2 - $C$3) / D9</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="16">
+        <v>45691</v>
+      </c>
+      <c r="D10" s="15">
+        <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
+        <v>50</v>
+      </c>
+      <c r="E10" s="15">
+        <f ca="1">($C$2 - $C$3) / D10</f>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D616A-AB4E-4A13-9F21-160622B0E0F0}">
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="18.75"/>
@@ -2155,47 +2096,47 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F3" s="20">
         <v>2</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="K3" s="20">
         <f>SUBTOTAL(9,F:F)</f>
@@ -2204,203 +2145,203 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F4" s="20">
         <v>2</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F5" s="20">
         <v>0.5</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F6" s="20">
         <v>0.5</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F7" s="20">
         <v>0.5</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F8" s="20">
         <v>0.5</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F9" s="20">
         <v>0.5</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F10" s="20">
         <v>0.5</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="9" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F11" s="20">
         <v>1</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F12" s="20">
         <v>1</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F13" s="20">
         <v>0.5</v>
@@ -2409,21 +2350,21 @@
         <v>0.5</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F14" s="20">
         <v>0.5</v>
@@ -2432,21 +2373,21 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F15" s="20">
         <v>1</v>
@@ -2455,366 +2396,366 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F19" s="20">
         <v>1</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F20" s="20">
         <v>1</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F21" s="20">
         <v>1</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F22" s="20">
         <v>1</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F23" s="20">
         <v>1</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F24" s="20">
         <v>1</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F25" s="20">
         <v>2</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="9" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F26" s="20">
         <v>2</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="9" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F27" s="20">
         <v>2</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F28" s="20">
         <v>2</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F29" s="20">
         <v>2</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="9" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F30" s="20">
         <v>2</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="9" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F31" s="20">
         <v>2</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="9" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="F32" s="20">
         <v>2</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="5" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E4DA8-3392-4F2C-9A15-98B6004DEE30}">
   <dimension ref="B2:G17"/>
   <sheetViews>
@@ -2852,39 +2793,39 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>SUM(作業工数見積もり!F3:F32)</f>
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="15">
         <f>SUMIF(作業工数見積もり!H3,"完了",作業工数見積もり!H32)</f>
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E3" s="15"/>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
@@ -2892,12 +2833,12 @@
       </c>
       <c r="E4" s="15"/>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="16">
         <f>DATE(2024,11,1)</f>
@@ -2906,54 +2847,54 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16">
         <v>45641</v>
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>2.4</v>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9" s="16">
         <v>45321</v>
@@ -2968,7 +2909,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="16">
         <v>45323</v>
@@ -2983,27 +2924,27 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3013,6 +2954,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -3022,15 +2972,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3277,20 +3218,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447015\Documents\GitHub\GrappleKing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8E32BD-9E3E-4603-A5DD-B2226B233132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E8B84-E784-41E5-B549-73623B4C7EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="0" windowWidth="21180" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="810" windowWidth="21180" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コスト表_進捗詳細" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="88">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -569,6 +569,23 @@
   </si>
   <si>
     <t>コントローラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗度合い</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクドア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%(小数点以下２桁)</t>
+    <rPh sb="2" eb="7">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -576,6 +593,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -689,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -790,11 +810,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -822,11 +855,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -837,21 +873,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1133,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1891,10 +1913,10 @@
   <autoFilter ref="A2:G35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:G35">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$G3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$G3="作業中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1916,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069BEE90-BDA3-483E-B604-6F3243372885}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1958,11 +1980,11 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.61111111111111116</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -1983,7 +2005,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2006,11 +2028,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>2.3703703703703702</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2022,11 +2044,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="15">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>1.3333333333333333</v>
+        <v>1.3913043478260869</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2038,41 +2060,54 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="15">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>16</v>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="27">
+        <f>C3/C2*100</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2825,7 +2860,7 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
@@ -2856,7 +2891,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45624</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2885,11 +2920,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>2.5714285714285716</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -2954,27 +2989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3217,10 +3231,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3237,20 +3283,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447015\Documents\GitHub\GrappleKing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5E8B84-E784-41E5-B549-73623B4C7EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03DBDB-3EC3-4E4B-9088-7753B490D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="810" windowWidth="21180" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -586,6 +586,63 @@
     <rPh sb="8" eb="9">
       <t>ケタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>α完成　　　 1/1　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>β完成　　　 1/15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>マスター完成 1/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>プロト完成 12/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -593,10 +650,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +685,25 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="14">
@@ -709,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -810,24 +887,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -855,9 +919,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1156,7 +1224,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1385,7 +1453,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1408,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1521,7 +1589,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1855,9 +1923,11 @@
       <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11">
+        <v>3</v>
+      </c>
       <c r="G33" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -1938,16 +2008,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069BEE90-BDA3-483E-B604-6F3243372885}">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1980,11 +2050,11 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.55000000000000004</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -2005,7 +2075,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2028,11 +2098,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>2.56</v>
+        <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2044,11 +2114,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="15">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>1.3913043478260869</v>
+        <v>1.4883720930232558</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2060,11 +2130,11 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="15">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.3333333333333333</v>
+        <v>1.4222222222222223</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2080,27 +2150,52 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="31">
+        <v>45636</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>17</v>
+      <c r="B15" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="31">
+        <v>45658</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" t="s">
+      <c r="B16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="31">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="31">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2860,7 +2955,7 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
@@ -2891,7 +2986,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2920,11 +3015,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -2989,6 +3084,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3231,28 +3347,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3269,23 +3383,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447015\Documents\GitHub\GrappleKing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D03DBDB-3EC3-4E4B-9088-7753B490D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3F335-B7A1-452B-A571-E40E5F6AB955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="810" windowWidth="21180" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1451,9 +1451,11 @@
       <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1472,9 +1474,7 @@
       <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="5" t="s">
         <v>79</v>
       </c>
@@ -2011,7 +2011,7 @@
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C3" s="15">
         <f>SUMIF(コスト表_進捗詳細!G3:G35,"完了",コスト表_進捗詳細!E3:E35)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.47826086956521741</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2098,11 +2098,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>2.9090909090909092</v>
+        <v>2.9047619047619047</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2114,11 +2114,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="15">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>1.4883720930232558</v>
+        <v>1.4523809523809523</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2130,11 +2130,11 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.4222222222222223</v>
+        <v>1.3863636363636365</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C12" s="27">
         <f>C3/C2*100</f>
-        <v>14.666666666666666</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>87</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -3015,11 +3015,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3084,27 +3084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3347,10 +3326,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3367,20 +3378,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447015\Documents\GitHub\GrappleKing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3F335-B7A1-452B-A571-E40E5F6AB955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF81690E-74F0-4626-82C1-C02FCE7D3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="810" windowWidth="21180" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2011,7 +2011,7 @@
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C3" s="15">
         <f>SUMIF(コスト表_進捗詳細!G3:G35,"完了",コスト表_進捗詳細!E3:E35)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.58333333333333337</v>
+        <v>0.36</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45630</v>
+        <v>45666</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2098,11 +2098,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>21</v>
+        <v>-7</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>2.9047619047619047</v>
+        <v>-8.1428571428571423</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2114,11 +2114,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E9" s="15">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>1.4523809523809523</v>
+        <v>3.5625</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2130,11 +2130,11 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E10" s="15">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.3863636363636365</v>
+        <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C12" s="27">
         <f>C3/C2*100</f>
-        <v>18.666666666666668</v>
+        <v>24</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>87</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45630</v>
+        <v>45666</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -3015,11 +3015,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>8</v>
+        <v>-19</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>4.5</v>
+        <v>-1.8947368421052631</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3084,6 +3084,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3326,28 +3347,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3364,23 +3383,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/進捗コスト表.xlsx
+++ b/進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447015\Documents\GitHub\GrappleKing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF81690E-74F0-4626-82C1-C02FCE7D3C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D0334-5785-410C-ABA6-44D7E3A488BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="810" windowWidth="21180" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C3" s="15">
         <f>SUMIF(コスト表_進捗詳細!G3:G35,"完了",コスト表_進捗詳細!E3:E35)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>12</v>
@@ -2050,11 +2050,11 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.36</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="E4" s="15"/>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45666</v>
+        <v>45677</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2098,11 +2098,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>-8.1428571428571423</v>
+        <v>-3.5714285714285716</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2114,11 +2114,11 @@
       </c>
       <c r="D9" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="15">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.5625</v>
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2130,11 +2130,11 @@
       </c>
       <c r="D10" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10" s="15">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>3.1666666666666665</v>
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C12" s="27">
         <f>C3/C2*100</f>
-        <v>24</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>87</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D4" s="15">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C6" s="16">
         <f ca="1">TODAY()</f>
-        <v>45666</v>
+        <v>45677</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -3015,11 +3015,11 @@
       </c>
       <c r="D8" s="15">
         <f ca="1">NETWORKDAYS(TODAY(),C8)</f>
-        <v>-19</v>
+        <v>-26</v>
       </c>
       <c r="E8" s="15">
         <f ca="1">($C$2 - $C$3) / D8</f>
-        <v>-1.8947368421052631</v>
+        <v>-1.3846153846153846</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3084,27 +3084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3347,10 +3326,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3367,20 +3378,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>